--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
+          <t>Portal San Bernardo</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Nutratrade S.A.</t>
+          <t>Inmobiliaria del Sur S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>20</v>
+        <v>22000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Portal San Bernardo</t>
+          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Inmobiliaria del Sur S.A.</t>
+          <t>Nutratrade S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Generación Eléctrica Soprole (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13634,16 +13634,16 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>SOPROLE S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Generación Eléctrica Soprole (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13682,16 +13682,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SOPROLE S.A.</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,11 +15271,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGRICOVIAL S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>AGRICOVIAL S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16082,16 +16082,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Jorge Humberto Marras Vega</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>139</v>
+        <v>51670</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Jorge Humberto Marras Vega</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>51670</v>
+        <v>139</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16706,16 +16706,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20647,7 +20647,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20695,7 +20695,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F424" t="n">
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
+          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21751,11 +21751,11 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
+          <t>TNT Express Chile Ltda.</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
+          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21799,11 +21799,11 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>TNT Express Chile Ltda.</t>
+          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22327,11 +22327,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Jose Luis Gonzalez Urrutia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22375,11 +22375,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Jose Luis Gonzalez Urrutia</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22754,16 +22754,16 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22802,16 +22802,16 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -23095,11 +23095,11 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23143,11 +23143,11 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23191,7 +23191,7 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F476" t="n">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23848,7 +23848,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23876,12 +23876,12 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23896,7 +23896,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23924,12 +23924,12 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>PLANTA DE PROCESO Y EMPAQUETADO DE FRUTAS SECAS (e-seia)</t>
+          <t>Proyecto Inmobiliario Eduardo Anguita III (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>PACIFIC NUT COMPANY CHILE S.A.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24356,12 +24356,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=335232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=334059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Eduardo Anguita III (e-seia)</t>
+          <t>PLANTA DE PROCESO Y EMPAQUETADO DE FRUTAS SECAS (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>PACIFIC NUT COMPANY CHILE S.A.</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=334059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=335232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Portal San Bernardo</t>
+          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Inmobiliaria del Sur S.A.</t>
+          <t>Nutratrade S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
+          <t>Portal San Bernardo</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Nutratrade S.A.</t>
+          <t>Inmobiliaria del Sur S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>20</v>
+        <v>22000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Generación Eléctrica Soprole (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13634,16 +13634,16 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SOPROLE S.A.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Generación Eléctrica Soprole (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13682,16 +13682,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>SOPROLE S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,11 +15271,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>AGRICOVIAL S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGRICOVIAL S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16082,16 +16082,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Jorge Humberto Marras Vega</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>51670</v>
+        <v>139</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Jorge Humberto Marras Vega</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>139</v>
+        <v>51670</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16706,16 +16706,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20647,7 +20647,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F423" t="n">
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20695,7 +20695,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
+          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21751,11 +21751,11 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>TNT Express Chile Ltda.</t>
+          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
+          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21799,11 +21799,11 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
+          <t>TNT Express Chile Ltda.</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22327,11 +22327,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Jose Luis Gonzalez Urrutia</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22375,11 +22375,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Jose Luis Gonzalez Urrutia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22754,16 +22754,16 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22802,16 +22802,16 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -23095,11 +23095,11 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23143,11 +23143,11 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23191,7 +23191,7 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F476" t="n">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23848,7 +23848,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23876,12 +23876,12 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23896,7 +23896,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23924,12 +23924,12 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Eduardo Anguita III (e-seia)</t>
+          <t>PLANTA DE PROCESO Y EMPAQUETADO DE FRUTAS SECAS (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>PACIFIC NUT COMPANY CHILE S.A.</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24356,12 +24356,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=334059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=335232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>PLANTA DE PROCESO Y EMPAQUETADO DE FRUTAS SECAS (e-seia)</t>
+          <t>Proyecto Inmobiliario Eduardo Anguita III (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>PACIFIC NUT COMPANY CHILE S.A.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=335232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=334059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>19/05/2020</t>
+          <t>20/05/2020</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,16 +8642,16 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
+          <t>Portal San Bernardo</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Nutratrade S.A.</t>
+          <t>Inmobiliaria del Sur S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>20</v>
+        <v>22000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Portal San Bernardo</t>
+          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Inmobiliaria del Sur S.A.</t>
+          <t>Nutratrade S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Generación Eléctrica Soprole (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13634,16 +13634,16 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>SOPROLE S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Generación Eléctrica Soprole (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13682,16 +13682,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SOPROLE S.A.</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,11 +15271,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGRICOVIAL S.A.</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>AGRICOVIAL S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16082,16 +16082,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Jorge Humberto Marras Vega</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>139</v>
+        <v>51670</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Jorge Humberto Marras Vega</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>51670</v>
+        <v>139</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16706,16 +16706,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20647,7 +20647,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20695,7 +20695,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F424" t="n">
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
+          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21751,11 +21751,11 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
+          <t>TNT Express Chile Ltda.</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
+          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21799,11 +21799,11 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>TNT Express Chile Ltda.</t>
+          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22327,11 +22327,11 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Jose Luis Gonzalez Urrutia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22375,11 +22375,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Jose Luis Gonzalez Urrutia</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22754,16 +22754,16 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22802,16 +22802,16 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -23095,11 +23095,11 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23143,11 +23143,11 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23191,7 +23191,7 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F476" t="n">
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23848,7 +23848,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23876,12 +23876,12 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23896,7 +23896,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23924,12 +23924,12 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>PLANTA DE PROCESO Y EMPAQUETADO DE FRUTAS SECAS (e-seia)</t>
+          <t>Proyecto Inmobiliario Eduardo Anguita III (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>PACIFIC NUT COMPANY CHILE S.A.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24356,12 +24356,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=335232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=334059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Eduardo Anguita III (e-seia)</t>
+          <t>PLANTA DE PROCESO Y EMPAQUETADO DE FRUTAS SECAS (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>PACIFIC NUT COMPANY CHILE S.A.</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=334059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=335232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -980,7 +980,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Portal San Bernardo</t>
+          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Inmobiliaria del Sur S.A.</t>
+          <t>Nutratrade S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
+          <t>Portal San Bernardo</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Nutratrade S.A.</t>
+          <t>Inmobiliaria del Sur S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>20</v>
+        <v>22000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Generación Eléctrica Soprole (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13682,16 +13682,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SOPROLE S.A.</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Generación Eléctrica Soprole (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13730,16 +13730,16 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>SOPROLE S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>AGRICOVIAL S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGRICOVIAL S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Jorge Humberto Marras Vega</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>51670</v>
+        <v>139</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Jorge Humberto Marras Vega</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>139</v>
+        <v>51670</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20695,7 +20695,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F424" t="n">
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,7 +20743,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
+          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21799,11 +21799,11 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>TNT Express Chile Ltda.</t>
+          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
+          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21847,11 +21847,11 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
+          <t>TNT Express Chile Ltda.</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21860,12 +21860,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22375,11 +22375,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Jose Luis Gonzalez Urrutia</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22423,11 +22423,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Jose Luis Gonzalez Urrutia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22802,16 +22802,16 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22850,16 +22850,16 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F469" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -23143,11 +23143,11 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23191,11 +23191,11 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23239,7 +23239,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F477" t="n">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23896,7 +23896,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23924,12 +23924,12 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23972,12 +23972,12 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Eduardo Anguita III (e-seia)</t>
+          <t>PLANTA DE PROCESO Y EMPAQUETADO DE FRUTAS SECAS (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>PACIFIC NUT COMPANY CHILE S.A.</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=334059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=335232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/05/2022</t>
+          <t>17/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
+          <t>Portal San Bernardo</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Nutratrade S.A.</t>
+          <t>Inmobiliaria del Sur S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>20</v>
+        <v>22000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Portal San Bernardo</t>
+          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Inmobiliaria del Sur S.A.</t>
+          <t>Nutratrade S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Generación Eléctrica Soprole (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13682,16 +13682,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>SOPROLE S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Generación Eléctrica Soprole (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13730,16 +13730,16 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SOPROLE S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGRICOVIAL S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>AGRICOVIAL S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Jorge Humberto Marras Vega</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>139</v>
+        <v>51670</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Jorge Humberto Marras Vega</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>51670</v>
+        <v>139</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20695,7 +20695,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,7 +20743,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F425" t="n">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
+          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21799,11 +21799,11 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
+          <t>TNT Express Chile Ltda.</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
+          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21847,11 +21847,11 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>TNT Express Chile Ltda.</t>
+          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21860,12 +21860,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22375,11 +22375,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Jose Luis Gonzalez Urrutia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22423,11 +22423,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Jose Luis Gonzalez Urrutia</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22802,16 +22802,16 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22850,16 +22850,16 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F469" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -23143,11 +23143,11 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23191,11 +23191,11 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23239,7 +23239,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F477" t="n">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23896,7 +23896,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23924,12 +23924,12 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23972,12 +23972,12 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>PLANTA DE PROCESO Y EMPAQUETADO DE FRUTAS SECAS (e-seia)</t>
+          <t>Proyecto Inmobiliario Eduardo Anguita III (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>PACIFIC NUT COMPANY CHILE S.A.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=335232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=334059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
+          <t>Portal San Bernardo</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Nutratrade S.A.</t>
+          <t>Inmobiliaria del Sur S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>20</v>
+        <v>22000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Portal San Bernardo</t>
+          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Inmobiliaria del Sur S.A.</t>
+          <t>Nutratrade S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Generación Eléctrica Soprole (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13682,16 +13682,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>SOPROLE S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Generación Eléctrica Soprole (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13730,16 +13730,16 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SOPROLE S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGRICOVIAL S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>AGRICOVIAL S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Jorge Humberto Marras Vega</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>139</v>
+        <v>51670</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Jorge Humberto Marras Vega</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>51670</v>
+        <v>139</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20695,7 +20695,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,7 +20743,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F425" t="n">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
+          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21799,11 +21799,11 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
+          <t>TNT Express Chile Ltda.</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
+          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21847,11 +21847,11 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>TNT Express Chile Ltda.</t>
+          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21860,12 +21860,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22375,11 +22375,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Jose Luis Gonzalez Urrutia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22423,11 +22423,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Jose Luis Gonzalez Urrutia</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22802,16 +22802,16 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22850,16 +22850,16 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F469" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -23143,11 +23143,11 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23191,11 +23191,11 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23239,7 +23239,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F477" t="n">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23896,7 +23896,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23924,12 +23924,12 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23972,12 +23972,12 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>PLANTA DE PROCESO Y EMPAQUETADO DE FRUTAS SECAS (e-seia)</t>
+          <t>Proyecto Inmobiliario Eduardo Anguita III (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>PACIFIC NUT COMPANY CHILE S.A.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=335232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=334059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/05/2020</t>
+          <t>19/05/2020</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
+          <t>Portal San Bernardo</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Nutratrade S.A.</t>
+          <t>Inmobiliaria del Sur S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>20</v>
+        <v>22000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Portal San Bernardo</t>
+          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Inmobiliaria del Sur S.A.</t>
+          <t>Nutratrade S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Generación Eléctrica Soprole (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13682,16 +13682,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>SOPROLE S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Generación Eléctrica Soprole (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13730,16 +13730,16 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SOPROLE S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGRICOVIAL S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>AGRICOVIAL S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Jorge Humberto Marras Vega</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>139</v>
+        <v>51670</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Jorge Humberto Marras Vega</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>51670</v>
+        <v>139</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20695,7 +20695,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,7 +20743,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F425" t="n">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
+          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21799,11 +21799,11 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
+          <t>TNT Express Chile Ltda.</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
+          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21847,11 +21847,11 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>TNT Express Chile Ltda.</t>
+          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21860,12 +21860,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22375,11 +22375,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Jose Luis Gonzalez Urrutia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22423,11 +22423,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Jose Luis Gonzalez Urrutia</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22802,16 +22802,16 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22850,16 +22850,16 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F469" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -23143,11 +23143,11 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23191,11 +23191,11 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23239,7 +23239,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F477" t="n">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23896,7 +23896,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23924,12 +23924,12 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23972,12 +23972,12 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>PLANTA DE PROCESO Y EMPAQUETADO DE FRUTAS SECAS (e-seia)</t>
+          <t>Proyecto Inmobiliario Eduardo Anguita III (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>PACIFIC NUT COMPANY CHILE S.A.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=335232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=334059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Portal San Bernardo</t>
+          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Inmobiliaria del Sur S.A.</t>
+          <t>Nutratrade S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
+          <t>Portal San Bernardo</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Nutratrade S.A.</t>
+          <t>Inmobiliaria del Sur S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>20</v>
+        <v>22000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Generación Eléctrica Soprole (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13682,16 +13682,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SOPROLE S.A.</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Generación Eléctrica Soprole (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13730,16 +13730,16 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>SOPROLE S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>AGRICOVIAL S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGRICOVIAL S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Jorge Humberto Marras Vega</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>51670</v>
+        <v>139</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Jorge Humberto Marras Vega</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>139</v>
+        <v>51670</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20695,7 +20695,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F424" t="n">
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,7 +20743,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
+          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21799,11 +21799,11 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>TNT Express Chile Ltda.</t>
+          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
+          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21847,11 +21847,11 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
+          <t>TNT Express Chile Ltda.</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21860,12 +21860,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22375,11 +22375,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Jose Luis Gonzalez Urrutia</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22423,11 +22423,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Jose Luis Gonzalez Urrutia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22802,16 +22802,16 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22850,16 +22850,16 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F469" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -23143,11 +23143,11 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23191,11 +23191,11 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23239,7 +23239,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F477" t="n">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23896,7 +23896,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23924,12 +23924,12 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23972,12 +23972,12 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Eduardo Anguita III (e-seia)</t>
+          <t>PLANTA DE PROCESO Y EMPAQUETADO DE FRUTAS SECAS (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>PACIFIC NUT COMPANY CHILE S.A.</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=334059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=335232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -17719,7 +17719,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F362" t="n">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Molibdenos y Metales S.A.</t>
+          <t>MolymetNos S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -18391,7 +18391,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>Molibdenos y Metales S.A.</t>
+          <t>MolymetNos S.A.</t>
         </is>
       </c>
       <c r="F376" t="n">
@@ -23863,7 +23863,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Molibdenos y Metales S.A.</t>
+          <t>MolymetNos S.A.</t>
         </is>
       </c>
       <c r="F490" t="n">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Unilever Chile SCC Ltda.</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -14311,7 +14311,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Unilever Chile SCC Ltda.</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F291" t="n">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Parque Solar Doña Carmen SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Parque Solar Barrancón SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
+          <t>Portal San Bernardo</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Nutratrade S.A.</t>
+          <t>Inmobiliaria del Sur S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>20</v>
+        <v>22000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Portal San Bernardo</t>
+          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Inmobiliaria del Sur S.A.</t>
+          <t>Nutratrade S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Generación Eléctrica Soprole (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13682,16 +13682,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>SOPROLE S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Generación Eléctrica Soprole (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13730,16 +13730,16 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SOPROLE S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGRICOVIAL S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>AGRICOVIAL S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Jorge Humberto Marras Vega</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>139</v>
+        <v>51670</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Jorge Humberto Marras Vega</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>51670</v>
+        <v>139</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20695,7 +20695,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,7 +20743,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F425" t="n">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
+          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21799,11 +21799,11 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
+          <t>TNT Express Chile Ltda.</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
+          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21847,11 +21847,11 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>TNT Express Chile Ltda.</t>
+          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21860,12 +21860,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22375,11 +22375,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Jose Luis Gonzalez Urrutia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22423,11 +22423,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Jose Luis Gonzalez Urrutia</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22802,16 +22802,16 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22850,16 +22850,16 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F469" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -23143,11 +23143,11 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23191,11 +23191,11 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23239,7 +23239,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F477" t="n">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23896,7 +23896,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23924,12 +23924,12 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23972,12 +23972,12 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>PLANTA DE PROCESO Y EMPAQUETADO DE FRUTAS SECAS (e-seia)</t>
+          <t>Proyecto Inmobiliario Eduardo Anguita III (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>PACIFIC NUT COMPANY CHILE S.A.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=335232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=334059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -4519,7 +4519,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
+          <t>Portal San Bernardo</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Nutratrade S.A.</t>
+          <t>Inmobiliaria del Sur S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>20</v>
+        <v>22000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Portal San Bernardo</t>
+          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Inmobiliaria del Sur S.A.</t>
+          <t>Nutratrade S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Generación Eléctrica Soprole (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13682,16 +13682,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>SOPROLE S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Generación Eléctrica Soprole (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13730,16 +13730,16 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SOPROLE S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGRICOVIAL S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>AGRICOVIAL S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Jorge Humberto Marras Vega</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>139</v>
+        <v>51670</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Jorge Humberto Marras Vega</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>51670</v>
+        <v>139</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20695,7 +20695,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,7 +20743,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F425" t="n">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
+          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21799,11 +21799,11 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
+          <t>TNT Express Chile Ltda.</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
+          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21847,11 +21847,11 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>TNT Express Chile Ltda.</t>
+          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21860,12 +21860,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22375,11 +22375,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Jose Luis Gonzalez Urrutia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22423,11 +22423,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Jose Luis Gonzalez Urrutia</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22802,16 +22802,16 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22850,16 +22850,16 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F469" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -23143,11 +23143,11 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23191,11 +23191,11 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23239,7 +23239,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F477" t="n">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23896,7 +23896,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23924,12 +23924,12 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23972,12 +23972,12 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>PLANTA DE PROCESO Y EMPAQUETADO DE FRUTAS SECAS (e-seia)</t>
+          <t>Proyecto Inmobiliario Eduardo Anguita III (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>PACIFIC NUT COMPANY CHILE S.A.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=335232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=334059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,16 +8690,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
+          <t>Portal San Bernardo</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,11 +9319,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Nutratrade S.A.</t>
+          <t>Inmobiliaria del Sur S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>20</v>
+        <v>22000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9332,12 +9332,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Portal San Bernardo</t>
+          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Inmobiliaria del Sur S.A.</t>
+          <t>Nutratrade S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9559,7 +9559,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -12007,7 +12007,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -13672,7 +13672,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Generación Eléctrica Soprole (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13682,16 +13682,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>SOPROLE S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Generación Eléctrica Soprole (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13730,16 +13730,16 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SOPROLE S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGRICOVIAL S.A.</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>AGRICOVIAL S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Jorge Humberto Marras Vega</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>139</v>
+        <v>51670</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Jorge Humberto Marras Vega</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>51670</v>
+        <v>139</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20215,7 +20215,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F414" t="n">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20695,7 +20695,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,7 +20743,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F425" t="n">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -21559,7 +21559,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F442" t="n">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
+          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21799,11 +21799,11 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
+          <t>TNT Express Chile Ltda.</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
+          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21847,11 +21847,11 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>TNT Express Chile Ltda.</t>
+          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21860,12 +21860,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22375,11 +22375,11 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Jose Luis Gonzalez Urrutia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22393,7 +22393,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22423,11 +22423,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Jose Luis Gonzalez Urrutia</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22802,16 +22802,16 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22850,16 +22850,16 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F469" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -23143,11 +23143,11 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23191,11 +23191,11 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23239,7 +23239,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F477" t="n">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23896,7 +23896,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23924,12 +23924,12 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23972,12 +23972,12 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>PLANTA DE PROCESO Y EMPAQUETADO DE FRUTAS SECAS (e-seia)</t>
+          <t>Proyecto Inmobiliario Eduardo Anguita III (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>PACIFIC NUT COMPANY CHILE S.A.</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24404,12 +24404,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=335232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=334059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Portal San Bernardo</t>
+          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Inmobiliaria del Sur S.A.</t>
+          <t>Nutratrade S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
+          <t>Portal San Bernardo</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Nutratrade S.A.</t>
+          <t>Inmobiliaria del Sur S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>20</v>
+        <v>22000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Generación Eléctrica Soprole (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13730,16 +13730,16 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SOPROLE S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Generación Eléctrica Soprole (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13778,16 +13778,16 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>SOPROLE S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>AGRICOVIAL S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15415,11 +15415,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGRICOVIAL S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Jorge Humberto Marras Vega</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>51670</v>
+        <v>139</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16226,16 +16226,16 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Jorge Humberto Marras Vega</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>139</v>
+        <v>51670</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,7 +20743,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F425" t="n">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20791,7 +20791,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
+          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21847,11 +21847,11 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>TNT Express Chile Ltda.</t>
+          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21860,12 +21860,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
+          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21895,11 +21895,11 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
+          <t>TNT Express Chile Ltda.</t>
         </is>
       </c>
       <c r="F449" t="n">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -21908,12 +21908,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22423,11 +22423,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Jose Luis Gonzalez Urrutia</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22471,11 +22471,11 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Jose Luis Gonzalez Urrutia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22850,16 +22850,16 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F469" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22888,7 +22888,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22898,16 +22898,16 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F470" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -23191,11 +23191,11 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23239,11 +23239,11 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23287,7 +23287,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F478" t="n">
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23972,12 +23972,12 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23992,7 +23992,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -24020,12 +24020,12 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
+          <t>Portal San Bernardo</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Nutratrade S.A.</t>
+          <t>Inmobiliaria del Sur S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>20</v>
+        <v>22000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Portal San Bernardo</t>
+          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Inmobiliaria del Sur S.A.</t>
+          <t>Nutratrade S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Generación Eléctrica Soprole (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13730,16 +13730,16 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>SOPROLE S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Generación Eléctrica Soprole (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13778,16 +13778,16 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SOPROLE S.A.</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGRICOVIAL S.A.</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15415,11 +15415,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>AGRICOVIAL S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Jorge Humberto Marras Vega</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>139</v>
+        <v>51670</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16226,16 +16226,16 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Jorge Humberto Marras Vega</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>51670</v>
+        <v>139</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,7 +20743,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20791,7 +20791,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F426" t="n">
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
+          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21847,11 +21847,11 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
+          <t>TNT Express Chile Ltda.</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21860,12 +21860,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
+          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21895,11 +21895,11 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>TNT Express Chile Ltda.</t>
+          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
         </is>
       </c>
       <c r="F449" t="n">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -21908,12 +21908,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22423,11 +22423,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Jose Luis Gonzalez Urrutia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22471,11 +22471,11 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Jose Luis Gonzalez Urrutia</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22850,16 +22850,16 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F469" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22888,7 +22888,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22898,16 +22898,16 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F470" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -23191,11 +23191,11 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23239,11 +23239,11 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23287,7 +23287,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F478" t="n">
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23972,12 +23972,12 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23992,7 +23992,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -24020,12 +24020,12 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Solek Chile Holding SpA</t>
+          <t>Parque Solar Tara SpA</t>
         </is>
       </c>
       <c r="F14" t="n">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/01/2023</t>
+          <t>27/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Portal San Bernardo</t>
+          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Inmobiliaria del Sur S.A.</t>
+          <t>Nutratrade S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
+          <t>Portal San Bernardo</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Nutratrade S.A.</t>
+          <t>Inmobiliaria del Sur S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>20</v>
+        <v>22000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Generación Eléctrica Soprole (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13730,16 +13730,16 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SOPROLE S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Generación Eléctrica Soprole (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13778,16 +13778,16 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>SOPROLE S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>AGRICOVIAL S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15415,11 +15415,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGRICOVIAL S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Jorge Humberto Marras Vega</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>51670</v>
+        <v>139</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16226,16 +16226,16 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Jorge Humberto Marras Vega</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>139</v>
+        <v>51670</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -18103,7 +18103,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F370" t="n">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,7 +20743,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F425" t="n">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20791,7 +20791,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
+          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21847,11 +21847,11 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>TNT Express Chile Ltda.</t>
+          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21860,12 +21860,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
+          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21895,11 +21895,11 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
+          <t>TNT Express Chile Ltda.</t>
         </is>
       </c>
       <c r="F449" t="n">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -21908,12 +21908,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22423,11 +22423,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Jose Luis Gonzalez Urrutia</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22471,11 +22471,11 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Jose Luis Gonzalez Urrutia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22850,16 +22850,16 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F469" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22888,7 +22888,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22898,16 +22898,16 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F470" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -23191,11 +23191,11 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23239,11 +23239,11 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23287,7 +23287,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F478" t="n">
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23972,12 +23972,12 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23992,7 +23992,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -24020,12 +24020,12 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ENEL DISTRIBUCIÓN S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>COMERCIAL E INDUSTRIAL EL TEMPLE S.A.</t>
+          <t>Ecological Systems S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>COMERCIAL E INDUSTRIAL EL TEMPLE S.A.</t>
+          <t>Ecological Systems S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>COMERCIAL E INDUSTRIAL EL TEMPLE S.A.</t>
+          <t>Ecological Systems S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>COMERCIAL E INDUSTRIAL EL TEMPLE S.A.</t>
+          <t>Ecological Systems S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8738,16 +8738,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8756,12 +8756,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Portal San Bernardo</t>
+          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,11 +9367,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Inmobiliaria del Sur S.A.</t>
+          <t>Nutratrade S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9380,12 +9380,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
+          <t>Portal San Bernardo</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Nutratrade S.A.</t>
+          <t>Inmobiliaria del Sur S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>20</v>
+        <v>22000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Generación Eléctrica Soprole (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13730,16 +13730,16 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SOPROLE S.A.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Generación Eléctrica Soprole (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13778,16 +13778,16 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>SOPROLE S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>AGRICOVIAL S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15415,11 +15415,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGRICOVIAL S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Jorge Humberto Marras Vega</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>51670</v>
+        <v>139</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16226,16 +16226,16 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Jorge Humberto Marras Vega</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>139</v>
+        <v>51670</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20743,7 +20743,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F425" t="n">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20791,7 +20791,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
+          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21847,11 +21847,11 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>TNT Express Chile Ltda.</t>
+          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21860,12 +21860,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
+          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21895,11 +21895,11 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
+          <t>TNT Express Chile Ltda.</t>
         </is>
       </c>
       <c r="F449" t="n">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -21908,12 +21908,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22423,11 +22423,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Jose Luis Gonzalez Urrutia</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22471,11 +22471,11 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Jose Luis Gonzalez Urrutia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22850,16 +22850,16 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F469" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22888,7 +22888,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22898,16 +22898,16 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F470" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -23191,11 +23191,11 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23239,11 +23239,11 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23287,7 +23287,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F478" t="n">
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23972,12 +23972,12 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23992,7 +23992,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -24020,12 +24020,12 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>Planta Solar Los Pétalos SpA.</t>
         </is>
       </c>
       <c r="F6" t="n">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>19/05/2020</t>
+          <t>20/05/2020</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/05/2020</t>
+          <t>19/05/2020</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -24295,7 +24295,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>PACIFIC NUT COMPANY CHILE S.A.</t>
+          <t>Pacific Nut Company Chile S.A.</t>
         </is>
       </c>
       <c r="F499" t="n">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Portal San Bernardo</t>
+          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Inmobiliaria del Sur S.A.</t>
+          <t>Nutratrade S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
+          <t>Portal San Bernardo</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Nutratrade S.A.</t>
+          <t>Inmobiliaria del Sur S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>20</v>
+        <v>22000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Generación Eléctrica Soprole (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13778,16 +13778,16 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SOPROLE S.A.</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Generación Eléctrica Soprole (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13826,16 +13826,16 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>SOPROLE S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15415,11 +15415,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>AGRICOVIAL S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15463,11 +15463,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGRICOVIAL S.A.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15943,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16226,16 +16226,16 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Jorge Humberto Marras Vega</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>51670</v>
+        <v>139</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16274,16 +16274,16 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Jorge Humberto Marras Vega</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>139</v>
+        <v>51670</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20791,7 +20791,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F426" t="n">
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20839,7 +20839,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F427" t="n">
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
+          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21895,11 +21895,11 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>TNT Express Chile Ltda.</t>
+          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
         </is>
       </c>
       <c r="F449" t="n">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -21908,12 +21908,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
+          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21943,11 +21943,11 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
+          <t>TNT Express Chile Ltda.</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22471,11 +22471,11 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Jose Luis Gonzalez Urrutia</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22519,11 +22519,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Jose Luis Gonzalez Urrutia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22888,7 +22888,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22898,16 +22898,16 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F470" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22946,16 +22946,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -23239,11 +23239,11 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23287,11 +23287,11 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23335,7 +23335,7 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F479" t="n">
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23992,7 +23992,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -24020,12 +24020,12 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
@@ -24040,7 +24040,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24068,12 +24068,12 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8786,16 +8786,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8804,12 +8804,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
+          <t>Portal San Bernardo</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Nutratrade S.A.</t>
+          <t>Inmobiliaria del Sur S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>20</v>
+        <v>22000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Portal San Bernardo</t>
+          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Inmobiliaria del Sur S.A.</t>
+          <t>Nutratrade S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Generación Eléctrica Soprole (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13778,16 +13778,16 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>SOPROLE S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Generación Eléctrica Soprole (e-seia)</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13826,16 +13826,16 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SOPROLE S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15415,11 +15415,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGRICOVIAL S.A.</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15463,11 +15463,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>AGRICOVIAL S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15943,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16226,16 +16226,16 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Jorge Humberto Marras Vega</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>139</v>
+        <v>51670</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16274,16 +16274,16 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Jorge Humberto Marras Vega</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>51670</v>
+        <v>139</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20791,7 +20791,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20839,7 +20839,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F427" t="n">
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
+          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21895,11 +21895,11 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
+          <t>TNT Express Chile Ltda.</t>
         </is>
       </c>
       <c r="F449" t="n">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -21908,12 +21908,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
+          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21943,11 +21943,11 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>TNT Express Chile Ltda.</t>
+          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22471,11 +22471,11 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Jose Luis Gonzalez Urrutia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22519,11 +22519,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Jose Luis Gonzalez Urrutia</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22888,7 +22888,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22898,16 +22898,16 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F470" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22946,16 +22946,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -23239,11 +23239,11 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23287,11 +23287,11 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23335,7 +23335,7 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F479" t="n">
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23992,7 +23992,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -24020,12 +24020,12 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
@@ -24040,7 +24040,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24068,12 +24068,12 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/05/2023</t>
+          <t>05/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Portal San Bernardo</t>
+          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Inmobiliaria del Sur S.A.</t>
+          <t>Nutratrade S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
+          <t>Portal San Bernardo</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Nutratrade S.A.</t>
+          <t>Inmobiliaria del Sur S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>20</v>
+        <v>22000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Generación Eléctrica Soprole (e-seia)</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13826,16 +13826,16 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SOPROLE S.A.</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Generación Eléctrica Soprole (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13874,16 +13874,16 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>SOPROLE S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15463,11 +15463,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>AGRICOVIAL S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGRICOVIAL S.A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15943,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16274,16 +16274,16 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Jorge Humberto Marras Vega</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>51670</v>
+        <v>139</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16322,16 +16322,16 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Jorge Humberto Marras Vega</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>139</v>
+        <v>51670</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20839,7 +20839,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F427" t="n">
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20887,7 +20887,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
+          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21943,11 +21943,11 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>TNT Express Chile Ltda.</t>
+          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
+          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21991,11 +21991,11 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
+          <t>TNT Express Chile Ltda.</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -22004,12 +22004,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22519,11 +22519,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Jose Luis Gonzalez Urrutia</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Jose Luis Gonzalez Urrutia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22946,16 +22946,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22994,16 +22994,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23287,11 +23287,11 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23335,11 +23335,11 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23383,7 +23383,7 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F480" t="n">
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -24040,7 +24040,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24068,12 +24068,12 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -24088,7 +24088,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24116,12 +24116,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
+          <t>Portal San Bernardo</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Nutratrade S.A.</t>
+          <t>Inmobiliaria del Sur S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>20</v>
+        <v>22000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Portal San Bernardo</t>
+          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Inmobiliaria del Sur S.A.</t>
+          <t>Nutratrade S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Generación Eléctrica Soprole (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13826,16 +13826,16 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>SOPROLE S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Generación Eléctrica Soprole (e-seia)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13874,16 +13874,16 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SOPROLE S.A.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15463,11 +15463,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGRICOVIAL S.A.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>AGRICOVIAL S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15943,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16274,16 +16274,16 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Jorge Humberto Marras Vega</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>139</v>
+        <v>51670</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16322,16 +16322,16 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Jorge Humberto Marras Vega</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>51670</v>
+        <v>139</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20839,7 +20839,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F427" t="n">
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20887,7 +20887,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F428" t="n">
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
+          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21943,11 +21943,11 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
+          <t>TNT Express Chile Ltda.</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
+          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21991,11 +21991,11 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>TNT Express Chile Ltda.</t>
+          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -22004,12 +22004,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22519,11 +22519,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Jose Luis Gonzalez Urrutia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Jose Luis Gonzalez Urrutia</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22946,16 +22946,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22994,16 +22994,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23287,11 +23287,11 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23335,11 +23335,11 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23383,7 +23383,7 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F480" t="n">
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -24040,7 +24040,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24068,12 +24068,12 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -24088,7 +24088,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24116,12 +24116,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/06/2023</t>
+          <t>05/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.128698</v>
+        <v>41287</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8834,16 +8834,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8852,12 +8852,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
+          <t>Portal San Bernardo</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Nutratrade S.A.</t>
+          <t>Inmobiliaria del Sur S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>20</v>
+        <v>22000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Portal San Bernardo</t>
+          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Inmobiliaria del Sur S.A.</t>
+          <t>Nutratrade S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Generación Eléctrica Soprole (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13826,16 +13826,16 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>SOPROLE S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Generación Eléctrica Soprole (e-seia)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13874,16 +13874,16 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SOPROLE S.A.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -15463,11 +15463,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGRICOVIAL S.A.</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G315" t="inlineStr">
         <is>
@@ -15476,12 +15476,12 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>AGRICOVIAL S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15943,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16274,16 +16274,16 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Jorge Humberto Marras Vega</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>139</v>
+        <v>51670</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16322,16 +16322,16 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Jorge Humberto Marras Vega</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>51670</v>
+        <v>139</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20839,7 +20839,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F427" t="n">
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20887,7 +20887,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F428" t="n">
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
+          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21943,11 +21943,11 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
+          <t>TNT Express Chile Ltda.</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
+          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21991,11 +21991,11 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>TNT Express Chile Ltda.</t>
+          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -22004,12 +22004,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22519,11 +22519,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Jose Luis Gonzalez Urrutia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Jose Luis Gonzalez Urrutia</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22946,16 +22946,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22994,16 +22994,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23287,11 +23287,11 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23335,11 +23335,11 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23383,7 +23383,7 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F480" t="n">
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -24040,7 +24040,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24068,12 +24068,12 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -24088,7 +24088,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24116,12 +24116,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -9703,7 +9703,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -12151,7 +12151,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F246" t="n">
@@ -20359,7 +20359,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F417" t="n">
@@ -21703,7 +21703,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F445" t="n">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Portal San Bernardo</t>
+          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Inmobiliaria del Sur S.A.</t>
+          <t>Nutratrade S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
+          <t>Portal San Bernardo</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Nutratrade S.A.</t>
+          <t>Inmobiliaria del Sur S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>20</v>
+        <v>22000</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Generación Eléctrica Soprole (e-seia)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13874,16 +13874,16 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SOPROLE S.A.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Generación Eléctrica Soprole (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13922,16 +13922,16 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>SOPROLE S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>AGRICOVIAL S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGRICOVIAL S.A.</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16322,16 +16322,16 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Jorge Humberto Marras Vega</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>51670</v>
+        <v>139</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16370,16 +16370,16 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Jorge Humberto Marras Vega</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>139</v>
+        <v>51670</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20887,7 +20887,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F428" t="n">
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20935,7 +20935,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F429" t="n">
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
+          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21991,11 +21991,11 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>TNT Express Chile Ltda.</t>
+          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -22004,12 +22004,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
+          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22039,11 +22039,11 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
+          <t>TNT Express Chile Ltda.</t>
         </is>
       </c>
       <c r="F452" t="n">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
@@ -22052,12 +22052,12 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Jose Luis Gonzalez Urrutia</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22615,11 +22615,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Jose Luis Gonzalez Urrutia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22994,16 +22994,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23042,16 +23042,16 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23335,11 +23335,11 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23383,11 +23383,11 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23431,7 +23431,7 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F481" t="n">
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -24088,7 +24088,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24116,12 +24116,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -24136,7 +24136,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24164,12 +24164,12 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -17815,7 +17815,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Comercial e Industrial Temple S.A.</t>
+          <t>Ecological Systems S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/11/2023</t>
+          <t>23/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
+          <t>Portal San Bernardo</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Nutratrade S.A.</t>
+          <t>Inmobiliaria del Sur S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>20</v>
+        <v>22000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Portal San Bernardo</t>
+          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Inmobiliaria del Sur S.A.</t>
+          <t>Nutratrade S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Generación Eléctrica Soprole (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13874,16 +13874,16 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>SOPROLE S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Generación Eléctrica Soprole (e-seia)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13922,16 +13922,16 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SOPROLE S.A.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGRICOVIAL S.A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>AGRICOVIAL S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16322,16 +16322,16 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Jorge Humberto Marras Vega</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>139</v>
+        <v>51670</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16370,16 +16370,16 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Jorge Humberto Marras Vega</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>51670</v>
+        <v>139</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20887,7 +20887,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20935,7 +20935,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F429" t="n">
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
+          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21991,11 +21991,11 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
+          <t>TNT Express Chile Ltda.</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -22004,12 +22004,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
+          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22039,11 +22039,11 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>TNT Express Chile Ltda.</t>
+          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
         </is>
       </c>
       <c r="F452" t="n">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
@@ -22052,12 +22052,12 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Jose Luis Gonzalez Urrutia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22615,11 +22615,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Jose Luis Gonzalez Urrutia</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22994,16 +22994,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23042,16 +23042,16 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23335,11 +23335,11 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23383,11 +23383,11 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23431,7 +23431,7 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F481" t="n">
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -24088,7 +24088,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24116,12 +24116,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -24136,7 +24136,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24164,12 +24164,12 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
+          <t>Portal San Bernardo</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Nutratrade S.A.</t>
+          <t>Inmobiliaria del Sur S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>20</v>
+        <v>22000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Portal San Bernardo</t>
+          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Inmobiliaria del Sur S.A.</t>
+          <t>Nutratrade S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Generación Eléctrica Soprole (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13874,16 +13874,16 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>SOPROLE S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Generación Eléctrica Soprole (e-seia)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13922,16 +13922,16 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SOPROLE S.A.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGRICOVIAL S.A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>AGRICOVIAL S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16322,16 +16322,16 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Jorge Humberto Marras Vega</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>139</v>
+        <v>51670</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16370,16 +16370,16 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Jorge Humberto Marras Vega</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>51670</v>
+        <v>139</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20887,7 +20887,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20935,7 +20935,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F429" t="n">
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
+          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21991,11 +21991,11 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
+          <t>TNT Express Chile Ltda.</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -22004,12 +22004,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
+          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22039,11 +22039,11 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>TNT Express Chile Ltda.</t>
+          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
         </is>
       </c>
       <c r="F452" t="n">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
@@ -22052,12 +22052,12 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Jose Luis Gonzalez Urrutia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22615,11 +22615,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Jose Luis Gonzalez Urrutia</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22994,16 +22994,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23042,16 +23042,16 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23335,11 +23335,11 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23383,11 +23383,11 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23431,7 +23431,7 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F481" t="n">
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -24088,7 +24088,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24116,12 +24116,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -24136,7 +24136,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24164,12 +24164,12 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Solmax Chile S.P.A</t>
+          <t>V-Max S.P.A</t>
         </is>
       </c>
       <c r="F25" t="n">

--- a/data/San Bernardo.xlsx
+++ b/data/San Bernardo.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
+          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8882,16 +8882,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Ecometales Limited Agencia en Chile</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8900,12 +8900,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Impulsión y Plantas Elevadoras de Aguas Servidas, sector Lo Herrera</t>
+          <t>Transporte de Residuos e Insumos a Complejo Industrial Ecometales Limited</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,16 +8930,16 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>Ecometales Limited Agencia en Chile</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7038590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7068598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
+          <t>Portal San Bernardo</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,11 +9511,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Nutratrade S.A.</t>
+          <t>Inmobiliaria del Sur S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>20</v>
+        <v>22000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9524,12 +9524,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Portal San Bernardo</t>
+          <t>Elaboraciòn de insumos para alimantaciòn animal con aprovechamiento de residuos generados en la industria de alimentaciòn humana</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Inmobiliaria del Sur S.A.</t>
+          <t>Nutratrade S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6646671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6594499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Generación Eléctrica Soprole (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13874,16 +13874,16 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>SOPROLE S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>4043</v>
+        <v>0</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Generación Eléctrica Soprole (e-seia)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13922,16 +13922,16 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>SOPROLE S.A.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4326076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -15511,11 +15511,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>AGRICOVIAL S.A.</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G316" t="inlineStr">
         <is>
@@ -15524,12 +15524,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -15544,7 +15544,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Agricovial San Bernardo, Región Metropolitana (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -15559,11 +15559,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>AGRICOVIAL S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G317" t="inlineStr">
         <is>
@@ -15572,12 +15572,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3370830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16322,16 +16322,16 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Jorge Humberto Marras Vega</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>139</v>
+        <v>51670</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Loteo D.F.L. N°2 con Construcción Simultánea Loteo D.F.L. N°2 con Construcción Simultánea (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16370,16 +16370,16 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Jorge Humberto Marras Vega</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>51670</v>
+        <v>139</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3216057&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>EMPRESAS CAROZZI S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE LOMBRIFILTRO PARA EMPRESAS CAROZZI, PLANTA NOS (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>EMPRESAS CAROZZI S.A</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2007251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20887,7 +20887,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20935,7 +20935,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F429" t="n">
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
+          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21991,11 +21991,11 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
+          <t>TNT Express Chile Ltda.</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>340</v>
+        <v>459</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -22004,12 +22004,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>OPERACION DE TERMINAL DE CARGA Y TALLER DE MANTENCION DE CAMIONES LIT CARGO S.A. (e-seia)</t>
+          <t>Planta Residuos Industriales Liquidos CODIPRA (e-seia)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22039,11 +22039,11 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>TNT Express Chile Ltda.</t>
+          <t>COMPAÑIA DISTRIBUIDOIRA Y PRODUCTORA AVICOLA CODIPRA S.A.</t>
         </is>
       </c>
       <c r="F452" t="n">
-        <v>459</v>
+        <v>340</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
@@ -22052,12 +22052,12 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1327452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1328360&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Jose Luis Gonzalez Urrutia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>PLANTA DE COMPOSTAJE GUANO DE AVES DE POSTURA (e-seia)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22615,11 +22615,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Jose Luis Gonzalez Urrutia</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942690&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22994,16 +22994,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Andres Felipe Ocampo Borrero</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>DEPOSITO Y TERMINAL DE VEHICULOS SAN BERNARDO-SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23042,16 +23042,16 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Andres Felipe Ocampo Borrero</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1079946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23335,11 +23335,11 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23383,11 +23383,11 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23431,7 +23431,7 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F481" t="n">
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -24088,7 +24088,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24116,12 +24116,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -24136,7 +24136,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24164,12 +24164,12 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
